--- a/resources/locators/locators.xlsx
+++ b/resources/locators/locators.xlsx
@@ -9,40 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="669" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CommonLocators" sheetId="32" r:id="rId1"/>
-    <sheet name="WelcomeFlowPage" sheetId="1" r:id="rId2"/>
-    <sheet name="PracticeSummaryPage" sheetId="2" r:id="rId3"/>
-    <sheet name="PracticeFillinCardPage" sheetId="3" r:id="rId4"/>
-    <sheet name="CopyDecksPage" sheetId="4" r:id="rId5"/>
-    <sheet name="ExDeckMCQPracticePage" sheetId="5" r:id="rId6"/>
-    <sheet name="ExDeckMCQCardViewPage" sheetId="6" r:id="rId7"/>
-    <sheet name="EditExpertDeckPage" sheetId="7" r:id="rId8"/>
-    <sheet name="DeleteCardPage" sheetId="8" r:id="rId9"/>
-    <sheet name="EditMyDeckPage" sheetId="9" r:id="rId10"/>
-    <sheet name="ExDeckConfCardPractPage" sheetId="10" r:id="rId11"/>
-    <sheet name="ExpertDeckConfCardViewPage" sheetId="11" r:id="rId12"/>
-    <sheet name="MyDeckConfCardViewPage" sheetId="12" r:id="rId13"/>
-    <sheet name="MyDeckMCQCardViewPage" sheetId="13" r:id="rId14"/>
-    <sheet name="CreateConfidenceCardPage" sheetId="14" r:id="rId15"/>
-    <sheet name="MyDeckCardsListPage" sheetId="15" r:id="rId16"/>
-    <sheet name="ExpertDeckCardsListPage" sheetId="16" r:id="rId17"/>
-    <sheet name="SelectedExpertDeckPage" sheetId="17" r:id="rId18"/>
-    <sheet name="SelectedMyDeckPage" sheetId="18" r:id="rId19"/>
-    <sheet name="CreateAccountPage" sheetId="19" r:id="rId20"/>
-    <sheet name="FeedbackPage" sheetId="20" r:id="rId21"/>
-    <sheet name="NotificationsPage" sheetId="21" r:id="rId22"/>
-    <sheet name="PrivacyPolicyPage" sheetId="22" r:id="rId23"/>
-    <sheet name="TermsOfServicePage" sheetId="23" r:id="rId24"/>
-    <sheet name="SettingsPage" sheetId="24" r:id="rId25"/>
-    <sheet name="ArchivedPage" sheetId="25" r:id="rId26"/>
-    <sheet name="CreateNewDeckPage" sheetId="26" r:id="rId27"/>
-    <sheet name="MyDecksPage" sheetId="27" r:id="rId28"/>
-    <sheet name="ExpertDecksPage" sheetId="28" r:id="rId29"/>
-    <sheet name="NavigationBar" sheetId="29" r:id="rId30"/>
-    <sheet name="LoginPage" sheetId="30" r:id="rId31"/>
+    <sheet name="LoginPage" sheetId="30" r:id="rId2"/>
+    <sheet name="NavigationBar" sheetId="29" r:id="rId3"/>
+    <sheet name="WelcomeFlowPage" sheetId="1" r:id="rId4"/>
+    <sheet name="MyDecksPage" sheetId="27" r:id="rId5"/>
+    <sheet name="CreateNewDeckPage" sheetId="26" r:id="rId6"/>
+    <sheet name="PracticeSummaryPage" sheetId="2" r:id="rId7"/>
+    <sheet name="PracticeFillinCardPage" sheetId="3" r:id="rId8"/>
+    <sheet name="CopyDecksPage" sheetId="4" r:id="rId9"/>
+    <sheet name="ExDeckMCQPracticePage" sheetId="5" r:id="rId10"/>
+    <sheet name="ExDeckMCQCardViewPage" sheetId="6" r:id="rId11"/>
+    <sheet name="EditExpertDeckPage" sheetId="7" r:id="rId12"/>
+    <sheet name="DeleteCardPage" sheetId="8" r:id="rId13"/>
+    <sheet name="EditMyDeckPage" sheetId="9" r:id="rId14"/>
+    <sheet name="ExDeckConfCardPractPage" sheetId="10" r:id="rId15"/>
+    <sheet name="ExpertDeckConfCardViewPage" sheetId="11" r:id="rId16"/>
+    <sheet name="MyDeckConfCardViewPage" sheetId="12" r:id="rId17"/>
+    <sheet name="MyDeckMCQCardViewPage" sheetId="13" r:id="rId18"/>
+    <sheet name="CreateConfidenceCardPage" sheetId="14" r:id="rId19"/>
+    <sheet name="MyDeckCardsListPage" sheetId="15" r:id="rId20"/>
+    <sheet name="ExpertDeckCardsListPage" sheetId="16" r:id="rId21"/>
+    <sheet name="SelectedExpertDeckPage" sheetId="17" r:id="rId22"/>
+    <sheet name="SelectedMyDeckPage" sheetId="18" r:id="rId23"/>
+    <sheet name="CreateAccountPage" sheetId="19" r:id="rId24"/>
+    <sheet name="FeedbackPage" sheetId="20" r:id="rId25"/>
+    <sheet name="NotificationsPage" sheetId="21" r:id="rId26"/>
+    <sheet name="PrivacyPolicyPage" sheetId="22" r:id="rId27"/>
+    <sheet name="TermsOfServicePage" sheetId="23" r:id="rId28"/>
+    <sheet name="SettingsPage" sheetId="24" r:id="rId29"/>
+    <sheet name="ArchivedPage" sheetId="25" r:id="rId30"/>
+    <sheet name="ExpertDecksPage" sheetId="28" r:id="rId31"/>
     <sheet name="How" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="332">
   <si>
     <t>Element Name</t>
   </si>
@@ -977,12 +977,6 @@
     <t>Tag Name</t>
   </si>
   <si>
-    <t>alert_yes_button</t>
-  </si>
-  <si>
-    <t>alert_cancel_button</t>
-  </si>
-  <si>
     <t>toolbar</t>
   </si>
   <si>
@@ -990,6 +984,75 @@
   </si>
   <si>
     <t>btn_got_it</t>
+  </si>
+  <si>
+    <t>android:id/date_picker_header_date</t>
+  </si>
+  <si>
+    <t>android:id/date_picker_header_year</t>
+  </si>
+  <si>
+    <t>android:id/prev</t>
+  </si>
+  <si>
+    <t>btn_alert_cancel</t>
+  </si>
+  <si>
+    <t>btn_alert_yes</t>
+  </si>
+  <si>
+    <t>btn_date_picker_ok</t>
+  </si>
+  <si>
+    <t>btn_date_picker_cancel</t>
+  </si>
+  <si>
+    <t>btn_date_picker_previous</t>
+  </si>
+  <si>
+    <t>btn_date_picker_next</t>
+  </si>
+  <si>
+    <t>android:id/next</t>
+  </si>
+  <si>
+    <t>day_element</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='day']</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeNavigationBar[@name=\""+pageTitle+"\"]</t>
+  </si>
+  <si>
+    <t>hour_element</t>
+  </si>
+  <si>
+    <t>minute_element</t>
+  </si>
+  <si>
+    <t>btn_timer_ok</t>
+  </si>
+  <si>
+    <t>btn_timer_cancel</t>
+  </si>
+  <si>
+    <t>lbl_am</t>
+  </si>
+  <si>
+    <t>lbl_pm</t>
+  </si>
+  <si>
+    <t>lbl_date_picker_header_year</t>
+  </si>
+  <si>
+    <t>lbl_date_picker_header_date</t>
+  </si>
+  <si>
+    <t>lbl_alert_title</t>
+  </si>
+  <si>
+    <t>lbl_alert_message</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1428,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1495,7 +1573,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1503,13 +1580,30 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2728,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2745,94 +2839,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="A2" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="A4" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="85" t="s">
+      <c r="A5" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="85"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="85"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="85"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="85"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="85"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="85"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,6 +3128,872 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10" style="29" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="29" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="111" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="30" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="111" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10" style="31" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="31" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10" style="32" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="32" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV22"/>
   <sheetViews>
@@ -3228,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
@@ -3383,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV15"/>
   <sheetViews>
@@ -3592,7 +4742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV15"/>
   <sheetViews>
@@ -3813,7 +4963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV14"/>
   <sheetViews>
@@ -4018,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
@@ -4291,7 +5441,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="72" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
@@ -4566,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
@@ -4841,7 +6212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
@@ -5052,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
@@ -5263,124 +6634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="79" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
@@ -5671,7 +6925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
@@ -5850,7 +7104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV13"/>
   <sheetViews>
@@ -6077,7 +7331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
@@ -6208,7 +7462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
@@ -6339,7 +7593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
@@ -6614,7 +7868,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="71" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
@@ -6737,605 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="66" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="66" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="69" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="69" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
@@ -7514,527 +8327,6 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10" style="26" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="26" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="71" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="71" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="72" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="72" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="72" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8177,6 +8469,870 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="69" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="69" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="66" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10" style="26" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="26" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8320,7 +9476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
@@ -8473,870 +9629,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10" style="29" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="29" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="111" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="30" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="111" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10" style="31" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="31" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10" style="32" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="32" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>